--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.042121.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.042121.xlsx_with_dialog_acts.xlsx
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2561,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3663,12 +3663,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4841,12 +4841,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4917,12 +4917,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4955,12 +4955,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5297,12 +5297,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5943,12 +5943,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6399,12 +6399,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6475,12 +6475,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6817,12 +6817,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7121,12 +7121,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7691,12 +7691,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7767,12 +7767,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7919,12 +7919,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8223,12 +8223,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8641,12 +8641,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8717,12 +8717,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9899,12 +9899,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10583,12 +10583,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10849,12 +10849,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11039,12 +11039,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11267,12 +11267,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11457,12 +11457,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11761,12 +11761,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12141,12 +12141,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12179,12 +12179,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12369,12 +12369,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12597,12 +12597,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12825,12 +12825,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13205,12 +13205,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13395,12 +13395,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13585,12 +13585,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13775,12 +13775,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13851,12 +13851,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
